--- a/data/CENSO_salud.xlsX
+++ b/data/CENSO_salud.xlsX
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\research_migration\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83A639E-550C-4571-A9FA-C8047D218F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B69BA5-7E42-451D-9FD6-489E6C8D041F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="15" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="5" r:id="rId4"/>
-    <sheet name="Hoja4" sheetId="6" r:id="rId5"/>
+    <sheet name="Migrante" sheetId="2" r:id="rId2"/>
+    <sheet name="arg1" sheetId="4" r:id="rId3"/>
+    <sheet name="arg2" sheetId="5" r:id="rId4"/>
+    <sheet name="total" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -274,9 +274,6 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -287,6 +284,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -598,7 +598,7 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C30" sqref="C30:F34"/>
     </sheetView>
   </sheetViews>
@@ -614,182 +614,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -812,11 +812,11 @@
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
       <c r="I14" s="2"/>
@@ -825,7 +825,7 @@
     </row>
     <row r="15" spans="1:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1"/>
@@ -846,7 +846,7 @@
     </row>
     <row r="16" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="12"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
@@ -867,7 +867,7 @@
     </row>
     <row r="17" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="12"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
@@ -888,7 +888,7 @@
     </row>
     <row r="18" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="12"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
@@ -909,7 +909,7 @@
     </row>
     <row r="19" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="12"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="10" t="s">
         <v>21</v>
       </c>
@@ -930,7 +930,7 @@
     </row>
     <row r="20" spans="1:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1"/>
@@ -951,7 +951,7 @@
     </row>
     <row r="21" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="12"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
@@ -972,7 +972,7 @@
     </row>
     <row r="22" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="12"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
@@ -993,7 +993,7 @@
     </row>
     <row r="23" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="12"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="24" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="10" t="s">
         <v>21</v>
       </c>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="25" spans="1:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1"/>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="26" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="12"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="27" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="12"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="28" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="12"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="29" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="12"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="10" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="30" spans="1:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="1"/>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="31" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="12"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="32" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="12"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="12"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="12"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="10" t="s">
         <v>21</v>
       </c>
@@ -1257,48 +1257,48 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1316,26 +1316,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:K10"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:J38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1415,14 +1415,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B66A8C6-E24B-4B51-A1F1-E508C8FAA1B5}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1"/>
@@ -1437,7 +1437,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1452,7 +1452,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1482,7 +1482,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1503,7 +1503,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1"/>
@@ -1518,7 +1518,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1563,7 +1563,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1577,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789202E7-97B3-4F14-BE32-A2762B5CFC82}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/data/CENSO_salud.xlsX
+++ b/data/CENSO_salud.xlsX
@@ -1,30 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\research_migration\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\2. Data-work\R_workspace\research_migration\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B69BA5-7E42-451D-9FD6-489E6C8D041F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8065EFE-4F12-4AB7-8E76-A3CFA9B3E81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="15" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="1" r:id="rId1"/>
-    <sheet name="Migrante" sheetId="2" r:id="rId2"/>
-    <sheet name="arg1" sheetId="4" r:id="rId3"/>
-    <sheet name="arg2" sheetId="5" r:id="rId4"/>
-    <sheet name="total" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Migrante" sheetId="2" r:id="rId3"/>
+    <sheet name="arg1" sheetId="4" r:id="rId4"/>
+    <sheet name="arg2" sheetId="5" r:id="rId5"/>
+    <sheet name="total" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
   <si>
     <t>CEPAL/CELADE Redatam+SP 06/17/2025</t>
   </si>
@@ -132,6 +147,24 @@
   </si>
   <si>
     <t xml:space="preserve">   882 386</t>
+  </si>
+  <si>
+    <t>Migrantes</t>
+  </si>
+  <si>
+    <t>Total Pais</t>
+  </si>
+  <si>
+    <t>No migrantes</t>
+  </si>
+  <si>
+    <t>otra provincia</t>
+  </si>
+  <si>
+    <t>esta provincia</t>
+  </si>
+  <si>
+    <t>el 46 % de los migrantes no tiene OS mientras solo el 35% de los nacionales (no migrantes) no tiene OS.</t>
   </si>
 </sst>
 </file>
@@ -141,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="##\ ###\ ###\ ###\ ##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +195,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +220,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -236,10 +282,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -274,6 +321,9 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -286,12 +336,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -599,10 +652,10 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:F34"/>
+      <selection activeCell="F16" sqref="F16:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
@@ -614,182 +667,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -812,11 +865,11 @@
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
       <c r="I14" s="2"/>
@@ -825,7 +878,7 @@
     </row>
     <row r="15" spans="1:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1"/>
@@ -846,7 +899,7 @@
     </row>
     <row r="16" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="16"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
@@ -867,7 +920,7 @@
     </row>
     <row r="17" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="16"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
@@ -888,7 +941,7 @@
     </row>
     <row r="18" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="16"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="1" t="s">
         <v>20</v>
       </c>
@@ -909,7 +962,7 @@
     </row>
     <row r="19" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="16"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="10" t="s">
         <v>21</v>
       </c>
@@ -930,7 +983,7 @@
     </row>
     <row r="20" spans="1:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1"/>
@@ -951,7 +1004,7 @@
     </row>
     <row r="21" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="16"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
@@ -972,7 +1025,7 @@
     </row>
     <row r="22" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
@@ -993,7 +1046,7 @@
     </row>
     <row r="23" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1014,7 +1067,7 @@
     </row>
     <row r="24" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="10" t="s">
         <v>21</v>
       </c>
@@ -1035,7 +1088,7 @@
     </row>
     <row r="25" spans="1:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1"/>
@@ -1056,7 +1109,7 @@
     </row>
     <row r="26" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="16"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1077,7 +1130,7 @@
     </row>
     <row r="27" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="16"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1098,7 +1151,7 @@
     </row>
     <row r="28" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="16"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="1" t="s">
         <v>20</v>
       </c>
@@ -1119,7 +1172,7 @@
     </row>
     <row r="29" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="16"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="10" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1193,7 @@
     </row>
     <row r="30" spans="1:11" ht="14.85" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="1"/>
@@ -1161,7 +1214,7 @@
     </row>
     <row r="31" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
@@ -1182,7 +1235,7 @@
     </row>
     <row r="32" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
@@ -1203,7 +1256,7 @@
     </row>
     <row r="33" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="16"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
@@ -1224,7 +1277,7 @@
     </row>
     <row r="34" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="16"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="10" t="s">
         <v>21</v>
       </c>
@@ -1257,48 +1310,48 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1316,26 +1369,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B24"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="A36:J36"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1344,66 +1397,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D4418A-1BCB-49B6-B76A-5783337F183F}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09F467B-7686-424D-8F4F-C1C09F5DF47C}">
+  <dimension ref="B4:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="5" width="20.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C5" s="9">
+        <v>994225</v>
+      </c>
+      <c r="D5" s="9">
+        <v>27787124</v>
+      </c>
+      <c r="E5" s="9">
+        <v>26792899</v>
+      </c>
+      <c r="I5" s="9">
+        <v>4754805</v>
+      </c>
+      <c r="J5" s="9">
+        <v>22038094</v>
+      </c>
+      <c r="K5" s="17">
+        <f>SUM(I5:J5)</f>
+        <v>26792899</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C6" s="9">
+        <v>56852</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1514231</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1457379</v>
+      </c>
+      <c r="I6" s="9">
+        <v>216482</v>
+      </c>
+      <c r="J6" s="9">
+        <v>1240897</v>
+      </c>
+      <c r="K6" s="17">
+        <f t="shared" ref="K6:K7" si="0">SUM(I6:J6)</f>
+        <v>1457379</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
+      <c r="C7" s="9">
+        <v>882386</v>
+      </c>
+      <c r="D7" s="9">
+        <v>16317432</v>
+      </c>
+      <c r="E7" s="9">
+        <v>15435046</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1941316</v>
+      </c>
+      <c r="J7" s="9">
+        <v>13493730</v>
+      </c>
+      <c r="K7" s="17">
+        <f t="shared" si="0"/>
+        <v>15435046</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="9">
+        <f>SUM(C5:C7)</f>
+        <v>1933463</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" ref="D8:E8" si="1">SUM(D5:D7)</f>
+        <v>45618787</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>43685324</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="18">
+        <f>C5/C$8</f>
+        <v>0.5142198221533073</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" ref="D12:E12" si="2">D5/D$8</f>
+        <v>0.60911580134737031</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" si="2"/>
+        <v>0.61331578998933367</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="18">
+        <f t="shared" ref="C13:E14" si="3">C6/C$8</f>
+        <v>2.9404234784942872E-2</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" si="3"/>
+        <v>3.3193144745387468E-2</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" si="3"/>
+        <v>3.3360837612192142E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="18">
+        <f t="shared" si="3"/>
+        <v>0.45637594306174983</v>
+      </c>
+      <c r="D14" s="18">
+        <f t="shared" si="3"/>
+        <v>0.35769105390724221</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" si="3"/>
+        <v>0.35332337239847417</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="18">
+        <f>SUM(C12:C14)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="18">
+        <f t="shared" ref="D15" si="4">SUM(D12:D14)</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" ref="E15" si="5">SUM(E12:E14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="19" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1412,6 +1614,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D4418A-1BCB-49B6-B76A-5783337F183F}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B66A8C6-E24B-4B51-A1F1-E508C8FAA1B5}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1419,10 +1689,10 @@
       <selection activeCell="E5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1"/>
@@ -1437,7 +1707,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1452,7 +1722,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1467,7 +1737,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1482,88 +1752,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3998D12-7851-449A-899C-8BD6C2FAB216}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="B5:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="9">
-        <v>2578065</v>
-      </c>
-      <c r="D2" s="9">
-        <v>2176740</v>
-      </c>
-      <c r="E2" s="9">
-        <v>4754805</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="9">
-        <v>118615</v>
-      </c>
-      <c r="D3" s="9">
-        <v>97867</v>
-      </c>
-      <c r="E3" s="9">
-        <v>216482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="9">
-        <v>950865</v>
-      </c>
-      <c r="D4" s="9">
-        <v>990451</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1941316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1574,14 +1763,95 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3998D12-7851-449A-899C-8BD6C2FAB216}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="B5:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2578065</v>
+      </c>
+      <c r="D2" s="9">
+        <v>2176740</v>
+      </c>
+      <c r="E2" s="9">
+        <v>4754805</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9">
+        <v>118615</v>
+      </c>
+      <c r="D3" s="9">
+        <v>97867</v>
+      </c>
+      <c r="E3" s="9">
+        <v>216482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9">
+        <v>950865</v>
+      </c>
+      <c r="D4" s="9">
+        <v>990451</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1941316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789202E7-97B3-4F14-BE32-A2762B5CFC82}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
@@ -1640,4 +1910,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05620686-265C-4499-93D2-4B30ED00E72D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>